--- a/Configuration/Config.xlsx
+++ b/Configuration/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B52C15-54DC-4576-913C-174DCAE6F051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFB39E-D1E2-4561-B58C-0079A376C35A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Sphere Leakage Test</t>
-  </si>
-  <si>
-    <t>F2-0.0005</t>
   </si>
   <si>
     <t>Activation (NI)</t>
@@ -730,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.35">
@@ -787,7 +784,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,7 +852,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -866,13 +863,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12">
         <v>10000</v>
@@ -880,28 +877,26 @@
       <c r="G4" s="11">
         <v>30</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="12">
         <v>10000</v>
@@ -1115,10 +1110,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>

--- a/Configuration/Config.xlsx
+++ b/Configuration/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFB39E-D1E2-4561-B58C-0079A376C35A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483A602-A060-4CA2-942A-502942A326A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Configuration/Config.xlsx
+++ b/Configuration/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483A602-A060-4CA2-942A-502942A326A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8447C525-80C7-477D-B86A-0B9AC66F5FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -155,10 +155,10 @@
     <t>false</t>
   </si>
   <si>
-    <t>ITER 1D (by P. Sawan)</t>
-  </si>
-  <si>
     <t>ITER_1D.i</t>
+  </si>
+  <si>
+    <t>ITER 1D (by M. Sawan)</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,10 +884,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>39</v>

--- a/Configuration/Config.xlsx
+++ b/Configuration/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8447C525-80C7-477D-B86A-0B9AC66F5FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597070E9-0FC4-41C2-8F46-A543A0ED306A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,10 +866,10 @@
         <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="12">
         <v>10000</v>
@@ -893,10 +893,10 @@
         <v>39</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="12">
         <v>10000</v>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Configuration/Config.xlsx
+++ b/Configuration/Config.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597070E9-0FC4-41C2-8F46-A543A0ED306A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A46F18-F295-4CBE-811A-91E25CA29AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
     <sheet name="Computational benchmarks" sheetId="3" r:id="rId2"/>
-    <sheet name="Experimental Benchmark" sheetId="5" r:id="rId3"/>
+    <sheet name="Experimental benchmarks" sheetId="6" r:id="rId3"/>
     <sheet name="Libraries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -23,17 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -159,6 +154,12 @@
   </si>
   <si>
     <t>ITER 1D (by M. Sawan)</t>
+  </si>
+  <si>
+    <t>Oktavian_Fe.i</t>
+  </si>
+  <si>
+    <t>Oktavian Iron Experiment</t>
   </si>
 </sst>
 </file>
@@ -213,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,14 +227,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -323,20 +318,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,19 +361,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -783,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,34 +777,34 @@
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="18.109375" customWidth="1"/>
     <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -985,17 +965,17 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -1038,16 +1018,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9682CC5F-3102-447D-8C03-ADF2A7BB00EA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EEB530-2BB1-44BD-96B5-AB98331CD0CC}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="11">
+        <v>30</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A13:I13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
